--- a/docs/Agile_Sprint_Plan.xlsx
+++ b/docs/Agile_Sprint_Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aarthy_Kidambi_Sekar\Documents\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aarthy_Kidambi_Sekar\Documents\School\SlidingPuzzle\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>Sprint</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Final Documentation preparation</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
@@ -582,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1074,25 +1077,40 @@
       <c r="F25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="12" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="7" t="str">
+      <c r="E27" s="7" t="str">
         <f>'Team members'!A1</f>
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="15" t="s">
+      <c r="F27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Agile_Sprint_Plan.xlsx
+++ b/docs/Agile_Sprint_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>Sprint</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>To Do</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Logout</t>
+  </si>
+  <si>
+    <t>Load Saved</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -304,7 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -642,10 +641,10 @@
         <v>All</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -660,10 +659,10 @@
         <v>All</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -678,10 +677,10 @@
         <v>All</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -696,10 +695,10 @@
         <v>All</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -718,7 +717,7 @@
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -739,10 +738,10 @@
         <v xml:space="preserve"> Umbarkar, Reena (r_u22)</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -757,10 +756,10 @@
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -775,10 +774,10 @@
         <v>All</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -793,10 +792,10 @@
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -811,10 +810,10 @@
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -829,10 +828,10 @@
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -847,10 +846,10 @@
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -871,10 +870,10 @@
         <v xml:space="preserve"> Vanipenta, Manoj Kumar (m_v219)</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -889,10 +888,10 @@
         <v xml:space="preserve"> Zhou, Pingheng (p_z12)</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -907,10 +906,10 @@
         <v xml:space="preserve"> Umbarkar, Reena (r_u22)</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -918,17 +917,17 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="6" t="str">
         <f>'Team members'!A1</f>
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -936,17 +935,17 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="6" t="str">
         <f>'Team members'!A1</f>
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -961,10 +960,10 @@
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -972,17 +971,17 @@
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="6" t="str">
         <f>'Team members'!A4</f>
         <v xml:space="preserve"> Zhou, Pingheng (p_z12)</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -990,17 +989,17 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>'Team members'!A3</f>
         <v xml:space="preserve"> Vanipenta, Manoj Kumar (m_v219)</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1021,10 +1020,10 @@
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1032,17 +1031,17 @@
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="6" t="str">
         <f>'Team members'!A2</f>
         <v xml:space="preserve"> Umbarkar, Reena (r_u22)</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1050,17 +1049,17 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="6" t="str">
         <f>'Team members'!A3</f>
         <v xml:space="preserve"> Vanipenta, Manoj Kumar (m_v219)</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>30</v>
+        <v>30</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1075,10 +1074,10 @@
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>30</v>
+        <v>30</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1086,32 +1085,51 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="12" t="s">
-        <v>30</v>
+      <c r="F26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="7" t="str">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="7" t="str">
         <f>'Team members'!A1</f>
         <v>Kidambi Sekar, Aarthy (a_k196)</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>30</v>
+      <c r="F28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
